--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Tshr</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.659998969723693</v>
+        <v>0.7896930000000001</v>
       </c>
       <c r="H2">
-        <v>0.659998969723693</v>
+        <v>2.369079</v>
       </c>
       <c r="I2">
-        <v>0.3129717777954368</v>
+        <v>0.2606374832830119</v>
       </c>
       <c r="J2">
-        <v>0.3129717777954368</v>
+        <v>0.3104103766112729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0694673901208549</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N2">
-        <v>0.0694673901208549</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O2">
-        <v>0.02497769656176403</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P2">
-        <v>0.02497769656176403</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q2">
-        <v>0.04584840590915808</v>
+        <v>0.146391972185</v>
       </c>
       <c r="R2">
-        <v>0.04584840590915808</v>
+        <v>1.317527749665</v>
       </c>
       <c r="S2">
-        <v>0.007817314098170257</v>
+        <v>0.01342293525443685</v>
       </c>
       <c r="T2">
-        <v>0.007817314098170257</v>
+        <v>0.01916756369486582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.659998969723693</v>
+        <v>0.7896930000000001</v>
       </c>
       <c r="H3">
-        <v>0.659998969723693</v>
+        <v>2.369079</v>
       </c>
       <c r="I3">
-        <v>0.3129717777954368</v>
+        <v>0.2606374832830119</v>
       </c>
       <c r="J3">
-        <v>0.3129717777954368</v>
+        <v>0.3104103766112729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.1495698006026</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N3">
-        <v>1.1495698006026</v>
+        <v>3.630605</v>
       </c>
       <c r="O3">
-        <v>0.4133393467937292</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P3">
-        <v>0.4133393467937292</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q3">
-        <v>0.7587148840231872</v>
+        <v>0.955687784755</v>
       </c>
       <c r="R3">
-        <v>0.7587148840231872</v>
+        <v>8.601190062795</v>
       </c>
       <c r="S3">
-        <v>0.129363550198838</v>
+        <v>0.08762867981593442</v>
       </c>
       <c r="T3">
-        <v>0.129363550198838</v>
+        <v>0.1251312227937431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.659998969723693</v>
+        <v>0.7896930000000001</v>
       </c>
       <c r="H4">
-        <v>0.659998969723693</v>
+        <v>2.369079</v>
       </c>
       <c r="I4">
-        <v>0.3129717777954368</v>
+        <v>0.2606374832830119</v>
       </c>
       <c r="J4">
-        <v>0.3129717777954368</v>
+        <v>0.3104103766112729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.226787560066387</v>
+        <v>0.167083</v>
       </c>
       <c r="N4">
-        <v>0.226787560066387</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O4">
-        <v>0.08154374087562649</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P4">
-        <v>0.08154374087562649</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q4">
-        <v>0.1496795559899656</v>
+        <v>0.131944275519</v>
       </c>
       <c r="R4">
-        <v>0.1496795559899656</v>
+        <v>1.187498479671</v>
       </c>
       <c r="S4">
-        <v>0.02552088954993525</v>
+        <v>0.01209820074865134</v>
       </c>
       <c r="T4">
-        <v>0.02552088954993525</v>
+        <v>0.01727588109809273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.659998969723693</v>
+        <v>0.7896930000000001</v>
       </c>
       <c r="H5">
-        <v>0.659998969723693</v>
+        <v>2.369079</v>
       </c>
       <c r="I5">
-        <v>0.3129717777954368</v>
+        <v>0.2606374832830119</v>
       </c>
       <c r="J5">
-        <v>0.3129717777954368</v>
+        <v>0.3104103766112729</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.33535204624099</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N5">
-        <v>1.33535204624099</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O5">
-        <v>0.4801392157688803</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P5">
-        <v>0.4801392157688803</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q5">
-        <v>0.8813309747374787</v>
+        <v>0.193158644569</v>
       </c>
       <c r="R5">
-        <v>0.8813309747374787</v>
+        <v>1.738427801121</v>
       </c>
       <c r="S5">
-        <v>0.1502700239484933</v>
+        <v>0.0177110530118955</v>
       </c>
       <c r="T5">
-        <v>0.1502700239484933</v>
+        <v>0.02529087194966842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.44881408164057</v>
+        <v>0.7896930000000001</v>
       </c>
       <c r="H6">
-        <v>1.44881408164057</v>
+        <v>2.369079</v>
       </c>
       <c r="I6">
-        <v>0.6870282222045634</v>
+        <v>0.2606374832830119</v>
       </c>
       <c r="J6">
-        <v>0.6870282222045634</v>
+        <v>0.3104103766112729</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0694673901208549</v>
+        <v>1.7922885</v>
       </c>
       <c r="N6">
-        <v>0.0694673901208549</v>
+        <v>3.584577</v>
       </c>
       <c r="O6">
-        <v>0.02497769656176403</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P6">
-        <v>0.02497769656176403</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q6">
-        <v>0.1006453330219136</v>
+        <v>1.4153576824305</v>
       </c>
       <c r="R6">
-        <v>0.1006453330219136</v>
+        <v>8.492146094583001</v>
       </c>
       <c r="S6">
-        <v>0.01716038246359378</v>
+        <v>0.1297766144520938</v>
       </c>
       <c r="T6">
-        <v>0.01716038246359378</v>
+        <v>0.1235448370749028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.44881408164057</v>
+        <v>0.78269</v>
       </c>
       <c r="H7">
-        <v>1.44881408164057</v>
+        <v>2.34807</v>
       </c>
       <c r="I7">
-        <v>0.6870282222045634</v>
+        <v>0.2583261492640564</v>
       </c>
       <c r="J7">
-        <v>0.6870282222045634</v>
+        <v>0.3076576564182248</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1495698006026</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N7">
-        <v>1.1495698006026</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O7">
-        <v>0.4133393467937292</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P7">
-        <v>0.4133393467937292</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q7">
-        <v>1.665512914941789</v>
+        <v>0.1450937677166667</v>
       </c>
       <c r="R7">
-        <v>1.665512914941789</v>
+        <v>1.30584390945</v>
       </c>
       <c r="S7">
-        <v>0.2839757965948912</v>
+        <v>0.01330390062251428</v>
       </c>
       <c r="T7">
-        <v>0.2839757965948912</v>
+        <v>0.01899758567992186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.44881408164057</v>
+        <v>0.78269</v>
       </c>
       <c r="H8">
-        <v>1.44881408164057</v>
+        <v>2.34807</v>
       </c>
       <c r="I8">
-        <v>0.6870282222045634</v>
+        <v>0.2583261492640564</v>
       </c>
       <c r="J8">
-        <v>0.6870282222045634</v>
+        <v>0.3076576564182248</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226787560066387</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N8">
-        <v>0.226787560066387</v>
+        <v>3.630605</v>
       </c>
       <c r="O8">
-        <v>0.08154374087562649</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P8">
-        <v>0.08154374087562649</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q8">
-        <v>0.3285730105650881</v>
+        <v>0.9472127424833333</v>
       </c>
       <c r="R8">
-        <v>0.3285730105650881</v>
+        <v>8.524914682349999</v>
       </c>
       <c r="S8">
-        <v>0.05602285132569126</v>
+        <v>0.08685158840857611</v>
       </c>
       <c r="T8">
-        <v>0.05602285132569126</v>
+        <v>0.1240215587176723</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.78269</v>
+      </c>
+      <c r="H9">
+        <v>2.34807</v>
+      </c>
+      <c r="I9">
+        <v>0.2583261492640564</v>
+      </c>
+      <c r="J9">
+        <v>0.3076576564182248</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.167083</v>
+      </c>
+      <c r="N9">
+        <v>0.5012489999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.04641773161811331</v>
+      </c>
+      <c r="P9">
+        <v>0.05565497289972147</v>
+      </c>
+      <c r="Q9">
+        <v>0.13077419327</v>
+      </c>
+      <c r="R9">
+        <v>1.17696773943</v>
+      </c>
+      <c r="S9">
+        <v>0.01199091386647965</v>
+      </c>
+      <c r="T9">
+        <v>0.01712267853034812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.78269</v>
+      </c>
+      <c r="H10">
+        <v>2.34807</v>
+      </c>
+      <c r="I10">
+        <v>0.2583261492640564</v>
+      </c>
+      <c r="J10">
+        <v>0.3076576564182248</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2445996666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.7337990000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.06795282393309501</v>
+      </c>
+      <c r="P10">
+        <v>0.08147560086672037</v>
+      </c>
+      <c r="Q10">
+        <v>0.1914457131033334</v>
+      </c>
+      <c r="R10">
+        <v>1.72301141793</v>
+      </c>
+      <c r="S10">
+        <v>0.01755399133825485</v>
+      </c>
+      <c r="T10">
+        <v>0.02506659241792187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.78269</v>
+      </c>
+      <c r="H11">
+        <v>2.34807</v>
+      </c>
+      <c r="I11">
+        <v>0.2583261492640564</v>
+      </c>
+      <c r="J11">
+        <v>0.3076576564182248</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.7922885</v>
+      </c>
+      <c r="N11">
+        <v>3.584577</v>
+      </c>
+      <c r="O11">
+        <v>0.4979199953031181</v>
+      </c>
+      <c r="P11">
+        <v>0.3980048554550032</v>
+      </c>
+      <c r="Q11">
+        <v>1.402806286065</v>
+      </c>
+      <c r="R11">
+        <v>8.416837716389999</v>
+      </c>
+      <c r="S11">
+        <v>0.1286257550282316</v>
+      </c>
+      <c r="T11">
+        <v>0.1224492410723606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.457469</v>
+      </c>
+      <c r="H12">
+        <v>2.914938</v>
+      </c>
+      <c r="I12">
+        <v>0.4810363674529317</v>
+      </c>
+      <c r="J12">
+        <v>0.3819319669705023</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1853783333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.5561349999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.05150040234182901</v>
+      </c>
+      <c r="P12">
+        <v>0.06174910743679608</v>
+      </c>
+      <c r="Q12">
+        <v>0.270183174105</v>
+      </c>
+      <c r="R12">
+        <v>1.62109904463</v>
+      </c>
+      <c r="S12">
+        <v>0.02477356646487788</v>
+      </c>
+      <c r="T12">
+        <v>0.0235839580620084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.44881408164057</v>
-      </c>
-      <c r="H9">
-        <v>1.44881408164057</v>
-      </c>
-      <c r="I9">
-        <v>0.6870282222045634</v>
-      </c>
-      <c r="J9">
-        <v>0.6870282222045634</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.33535204624099</v>
-      </c>
-      <c r="N9">
-        <v>1.33535204624099</v>
-      </c>
-      <c r="O9">
-        <v>0.4801392157688803</v>
-      </c>
-      <c r="P9">
-        <v>0.4801392157688803</v>
-      </c>
-      <c r="Q9">
-        <v>1.934676848541496</v>
-      </c>
-      <c r="R9">
-        <v>1.934676848541496</v>
-      </c>
-      <c r="S9">
-        <v>0.3298691918203871</v>
-      </c>
-      <c r="T9">
-        <v>0.3298691918203871</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.457469</v>
+      </c>
+      <c r="H13">
+        <v>2.914938</v>
+      </c>
+      <c r="I13">
+        <v>0.4810363674529317</v>
+      </c>
+      <c r="J13">
+        <v>0.3819319669705023</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.210201666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.630605</v>
+      </c>
+      <c r="O13">
+        <v>0.3362090468038446</v>
+      </c>
+      <c r="P13">
+        <v>0.4031154633417589</v>
+      </c>
+      <c r="Q13">
+        <v>1.763831412915</v>
+      </c>
+      <c r="R13">
+        <v>10.58298847749</v>
+      </c>
+      <c r="S13">
+        <v>0.1617287785793341</v>
+      </c>
+      <c r="T13">
+        <v>0.1539626818303434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.457469</v>
+      </c>
+      <c r="H14">
+        <v>2.914938</v>
+      </c>
+      <c r="I14">
+        <v>0.4810363674529317</v>
+      </c>
+      <c r="J14">
+        <v>0.3819319669705023</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.167083</v>
+      </c>
+      <c r="N14">
+        <v>0.5012489999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.04641773161811331</v>
+      </c>
+      <c r="P14">
+        <v>0.05565497289972147</v>
+      </c>
+      <c r="Q14">
+        <v>0.243518292927</v>
+      </c>
+      <c r="R14">
+        <v>1.461109757562</v>
+      </c>
+      <c r="S14">
+        <v>0.02232861700298232</v>
+      </c>
+      <c r="T14">
+        <v>0.02125641327128062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.457469</v>
+      </c>
+      <c r="H15">
+        <v>2.914938</v>
+      </c>
+      <c r="I15">
+        <v>0.4810363674529317</v>
+      </c>
+      <c r="J15">
+        <v>0.3819319669705023</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2445996666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.7337990000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.06795282393309501</v>
+      </c>
+      <c r="P15">
+        <v>0.08147560086672037</v>
+      </c>
+      <c r="Q15">
+        <v>0.3564964315770001</v>
+      </c>
+      <c r="R15">
+        <v>2.138978589462</v>
+      </c>
+      <c r="S15">
+        <v>0.03268777958294466</v>
+      </c>
+      <c r="T15">
+        <v>0.03111813649913008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.457469</v>
+      </c>
+      <c r="H16">
+        <v>2.914938</v>
+      </c>
+      <c r="I16">
+        <v>0.4810363674529317</v>
+      </c>
+      <c r="J16">
+        <v>0.3819319669705023</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.7922885</v>
+      </c>
+      <c r="N16">
+        <v>3.584577</v>
+      </c>
+      <c r="O16">
+        <v>0.4979199953031181</v>
+      </c>
+      <c r="P16">
+        <v>0.3980048554550032</v>
+      </c>
+      <c r="Q16">
+        <v>2.6122049278065</v>
+      </c>
+      <c r="R16">
+        <v>10.448819711226</v>
+      </c>
+      <c r="S16">
+        <v>0.2395176258227928</v>
+      </c>
+      <c r="T16">
+        <v>0.1520107773077398</v>
       </c>
     </row>
   </sheetData>
